--- a/data/trans_dic/P3A_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,65; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>1,3; 4,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,74; 3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,69; 7,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,75; 2,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,65; 3,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,25; 2,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,48; 4,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,39; 3,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,23; 3,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,74; 2,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,13; 4,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,14; 4,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,97; 3,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,96; 3,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,89; 3,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,5; 2,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,19; 2,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,8; 3,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,14; 2,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,42; 1,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,23; 2,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,71; 7,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,26; 4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,42; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,89; 3,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,46; 3,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,43; 4,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,39; 2,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,47; 2,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,84; 4,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,65; 3,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,53; 1,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,85; 2,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,32; 6,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,52; 4,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,46; 2,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,71; 3,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,98; 3,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,53; 4,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,6; 2,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,9; 3,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,96; 4,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,87; 3,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,7; 1,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,27; 3,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,92; 6,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,51; 5,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>2,19; 6,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,21; 5,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,92; 3,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,48; 6,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,67; 2,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,75; 3,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,68; 4,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>2,51; 5,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,68; 3,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,18; 4,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,43; 5,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,7; 9,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,59; 3,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,77; 8,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,32; 7,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,56; 7,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,25; 6,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,68; 7,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,11; 6,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,64; 7,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,8; 4,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,03; 7,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,92; 13,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,03; 22,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,07; 18,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>18,36; 26,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,34; 14,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,52; 24,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,84; 19,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>25,06; 31,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,49; 12,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,45; 21,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>11,53; 17,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>23,26; 28,17</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 4,8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 4,5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 2,98</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 5,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 3,8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 5,28</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 3,76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 6,02</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 4,06</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 4,72</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 3,2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 5,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P3A_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,56</t>
+          <t>1,61; 4,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,0</t>
+          <t>1,11; 4,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,3</t>
+          <t>0,71; 3,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,59</t>
+          <t>0,68; 6,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,88</t>
+          <t>0,76; 2,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,61</t>
+          <t>0,67; 3,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,31</t>
+          <t>0,26; 2,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,66</t>
+          <t>0,49; 4,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,27</t>
+          <t>1,49; 3,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,21</t>
+          <t>1,24; 3,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,28</t>
+          <t>0,7; 2,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,93</t>
+          <t>1,13; 5,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,68</t>
+          <t>1,99; 4,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,22</t>
+          <t>0,98; 3,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,14</t>
+          <t>0,84; 3,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,23</t>
+          <t>0,82; 2,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,57</t>
+          <t>0,52; 2,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,11</t>
+          <t>0,19; 2,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,56</t>
+          <t>1,85; 3,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,59</t>
+          <t>1,11; 2,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,64</t>
+          <t>0,43; 1,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,36</t>
+          <t>0,22; 1,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,52</t>
+          <t>3,64; 7,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,05</t>
+          <t>1,26; 3,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,92</t>
+          <t>0,42; 1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,23</t>
+          <t>0,89; 3,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,78</t>
+          <t>1,44; 3,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,02</t>
+          <t>1,45; 4,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,25</t>
+          <t>0,4; 2,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,04</t>
+          <t>0,5; 2,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,99</t>
+          <t>2,74; 4,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,47</t>
+          <t>1,61; 3,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,66</t>
+          <t>0,58; 1,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,17</t>
+          <t>0,83; 2,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,12</t>
+          <t>2,37; 5,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,46</t>
+          <t>1,55; 4,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,42</t>
+          <t>0,46; 2,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,51</t>
+          <t>0,81; 3,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,53</t>
+          <t>0,98; 3,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,69</t>
+          <t>1,48; 4,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,36</t>
+          <t>0,61; 2,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,82</t>
+          <t>1,91; 4,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,09</t>
+          <t>1,95; 4,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,94</t>
+          <t>1,85; 3,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,95</t>
+          <t>0,64; 1,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,29</t>
+          <t>1,41; 3,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,2</t>
+          <t>1,91; 5,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,0</t>
+          <t>1,46; 4,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,44</t>
+          <t>2,15; 6,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,07</t>
+          <t>2,16; 5,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,84</t>
+          <t>0,97; 3,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,55</t>
+          <t>2,52; 6,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,98</t>
+          <t>0,68; 2,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,76</t>
+          <t>1,76; 3,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,04</t>
+          <t>1,68; 4,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,11</t>
+          <t>2,48; 5,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,92</t>
+          <t>1,71; 3,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,02</t>
+          <t>2,19; 4,07</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,68</t>
+          <t>1,45; 5,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,58</t>
+          <t>3,66; 9,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,33</t>
+          <t>0,62; 3,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,83</t>
+          <t>4,72; 8,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,94</t>
+          <t>3,62; 8,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,36</t>
+          <t>2,76; 7,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,25</t>
+          <t>2,26; 6,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,89</t>
+          <t>1,77; 7,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,36</t>
+          <t>2,78; 6,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,25</t>
+          <t>3,68; 7,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,42</t>
+          <t>1,63; 4,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,45</t>
+          <t>2,81; 7,52</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,92; 13,59</t>
+          <t>5,89; 13,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,03; 22,59</t>
+          <t>12,56; 22,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,07; 18,29</t>
+          <t>10,39; 18,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,36; 26,05</t>
+          <t>18,54; 26,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,06</t>
+          <t>7,45; 14,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 24,13</t>
+          <t>15,31; 23,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,84; 19,12</t>
+          <t>11,12; 19,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,06; 31,17</t>
+          <t>25,09; 31,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,59</t>
+          <t>7,69; 13,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,45; 21,67</t>
+          <t>15,46; 21,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,53; 17,55</t>
+          <t>11,43; 17,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,26; 28,17</t>
+          <t>23,23; 27,94</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 4,8</t>
+          <t>3,36; 4,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,5</t>
+          <t>3,14; 4,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,98</t>
+          <t>1,96; 3,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,1</t>
+          <t>3,35; 5,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,8</t>
+          <t>2,59; 3,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,28</t>
+          <t>3,93; 5,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,76</t>
+          <t>2,4; 3,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,02</t>
+          <t>4,46; 6,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,06</t>
+          <t>3,18; 4,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,72</t>
+          <t>3,72; 4,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,2</t>
+          <t>2,35; 3,18</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,17; 5,4</t>
+          <t>4,24; 5,45</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente una persona con remuneración</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14001</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10972</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7056</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11660</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7165</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7377</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5796</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21166</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18349</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11028</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7936; 22507</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5064; 19069</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2952; 13475</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2702; 27008</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3528; 13322</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2895; 15382</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1024; 8934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1530; 12814</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14306; 30668</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10956; 28282</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5730; 18706</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8053; 36267</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23324</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12543</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2469</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10998</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10329</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7416</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34322</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22872</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9885</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6996</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14641; 33744</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6740; 23366</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9500</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16328</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5220; 18714</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4976; 17788</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2934; 14304</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>976; 10597</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25113; 48328</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14449; 34796</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4946; 18369</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2027; 18610</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33587</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16312</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6507</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9490</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16355</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17191</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6155</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49942</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33503</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13532</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15645</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23207; 47553</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8624; 26943</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2794; 13028</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4773; 18495</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9909; 25788</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10293; 28744</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2648; 15295</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2988; 11814</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36357; 64522</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22338; 49229</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7741; 23592</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9324; 24449</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20261</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16863</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6893</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18562</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9825</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16575</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8125</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20064</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30086</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>33438</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15017</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38626</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12297; 30876</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9512; 27318</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2937; 14640</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7182; 31680</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5029; 18621</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9096; 27999</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3935; 15362</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13588; 29086</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20177; 42807</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22733; 48430</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8262; 25096</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>22629; 52546</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13650</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18633</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19050</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19187</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14629</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21701</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>31854</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25412</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>33679</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7395; 23060</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6254; 20505</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10268; 31638</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12115; 28360</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3914; 15327</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11301; 30382</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3349; 14543</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9622; 21507</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13227; 32449</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21761; 45604</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16613; 38752</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24343; 45170</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8547</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18779</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5131</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24592</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19036</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16389</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14886</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29349</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27583</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>35168</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20017</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>53941</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4232; 15791</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11348; 29199</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2068; 12132</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17310; 32780</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12399; 28893</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9756; 26369</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8498; 23523</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10772; 47967</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17643; 38793</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24365; 48464</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11560; 30298</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27433; 73357</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19067</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>42867</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35469</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>62418</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34855</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>74818</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>58713</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>119018</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>53922</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>117686</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>94182</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>181436</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12364; 28047</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31390; 55752</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>26632; 47524</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>52437; 74415</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>24873; 48664</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>59552; 92266</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>44499; 78157</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>106849; 133273</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>41804; 71926</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>98744; 139676</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>75027; 114279</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>164623; 197970</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>132436</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>131005</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>82158</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>149050</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>106285</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>161866</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>106916</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>198729</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>238721</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>292870</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>189073</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>347779</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>110225; 156128</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>107733; 154617</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>66300; 101792</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>115754; 179417</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>87566; 128710</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>139713; 192863</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>84935; 132123</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>165465; 223279</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>211408; 271328</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>260008; 327290</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>162745; 220265</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>303718; 390597</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>